--- a/Dashboard/media/hyd.xlsx
+++ b/Dashboard/media/hyd.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__gitam__\DashBoard-BackEnd\Dashboard\media\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ED9AFC-2376-4BA0-BF31-7125AB71F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8685" yWindow="3840" windowWidth="21600" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="3840" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="CF 2022" sheetId="1" r:id="rId1"/>
@@ -19,10 +13,10 @@
     <sheet name="HBS 2020" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="HBS 2019" sheetId="10" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{57116409-19A3-4872-8292-0C8431F07AAA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{BA133817-752F-4878-83DA-9EABB6948DE5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{57116409-19A3-4872-8292-0C8431F07AAA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,9 +45,6 @@
     <t>Hyderabad Campus</t>
   </si>
   <si>
-    <t>HBS</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -942,19 +933,22 @@
     <t>Hyderabad Business School, Hyderabad - List of Corporates - UG - 2019</t>
   </si>
   <si>
-    <t>SoTH</t>
-  </si>
-  <si>
-    <t>SoPH</t>
-  </si>
-  <si>
-    <t>SoSH</t>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>GSB</t>
+  </si>
+  <si>
+    <t>GSP</t>
+  </si>
+  <si>
+    <t>GSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -1446,7 +1440,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1467,11 +1463,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1687,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1696,7 +1690,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3:L3"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1743,29 +1737,29 @@
       <c r="I2" s="83"/>
       <c r="J2" s="83"/>
       <c r="K2" s="83"/>
-      <c r="L2" s="73"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:12" ht="25.5" customHeight="1">
       <c r="A3" s="77"/>
       <c r="B3" s="77"/>
       <c r="C3" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="75"/>
     </row>
@@ -1773,34 +1767,34 @@
       <c r="A4" s="78"/>
       <c r="B4" s="78"/>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1">
@@ -1808,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1832,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1856,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1880,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
@@ -1904,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="5"/>
@@ -1928,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
@@ -1950,7 +1944,7 @@
     <row r="11" spans="1:12" ht="19.5" customHeight="1">
       <c r="A11" s="77"/>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1972,7 +1966,7 @@
     <row r="12" spans="1:12" ht="19.5" customHeight="1">
       <c r="A12" s="77"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
@@ -1994,7 +1988,7 @@
     <row r="13" spans="1:12" ht="19.5" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
@@ -2018,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
@@ -2042,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2066,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -2090,7 +2084,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -2114,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2137,7 +2131,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2161,7 +2155,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2185,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2209,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2233,7 +2227,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2257,7 +2251,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2273,7 +2267,7 @@
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
       <c r="A25" s="77"/>
       <c r="B25" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2295,7 +2289,7 @@
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
       <c r="A26" s="77"/>
       <c r="B26" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2317,7 +2311,7 @@
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2357,7 +2351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2385,8 +2379,8 @@
       <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="84" t="s">
-        <v>96</v>
+      <c r="A2" s="85" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -2397,41 +2391,41 @@
       <c r="H2" s="83"/>
       <c r="I2" s="83"/>
       <c r="J2" s="83"/>
-      <c r="K2" s="73"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25">
@@ -2439,31 +2433,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="37">
         <v>5</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="38">
         <v>4</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" s="39">
         <v>4</v>
@@ -2474,19 +2468,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="43">
         <v>6</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="44">
         <v>0</v>
@@ -2495,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" s="45">
         <v>0</v>
@@ -2509,10 +2503,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="43">
         <v>7.6</v>
@@ -2544,19 +2538,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="43">
         <v>4</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="44">
         <v>22</v>
@@ -2565,10 +2559,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" s="45">
         <v>25</v>
@@ -2579,31 +2573,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>100</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>101</v>
       </c>
       <c r="D8" s="43">
         <v>21</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="44">
         <v>34</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" s="45">
         <v>34</v>
@@ -2614,10 +2608,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="43">
         <v>3.96</v>
@@ -2649,19 +2643,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="43">
         <v>16.5</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="44">
         <v>3</v>
@@ -2673,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" s="45">
         <v>3</v>
@@ -2684,19 +2678,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="43">
         <v>3.5</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="44">
         <v>33</v>
@@ -2708,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K11" s="45">
         <v>36</v>
@@ -2719,31 +2713,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="43">
         <v>4.9000000000000004</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="44">
         <v>9</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" s="45">
         <v>9</v>
@@ -2754,10 +2748,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="43">
         <v>8</v>
@@ -2789,10 +2783,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="43">
         <v>3.6</v>
@@ -2824,31 +2818,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>107</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>108</v>
       </c>
       <c r="D15" s="43">
         <v>6.5</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="44">
         <v>0</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K15" s="45">
         <v>0</v>
@@ -2859,31 +2853,31 @@
         <v>13</v>
       </c>
       <c r="B16" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>109</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>110</v>
       </c>
       <c r="D16" s="43">
         <v>5.52</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="44">
         <v>5</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16" s="45">
         <v>5</v>
@@ -2894,31 +2888,31 @@
         <v>14</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="43">
         <v>3.2</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="44">
         <v>27</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17" s="45">
         <v>27</v>
@@ -2929,19 +2923,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>111</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>112</v>
       </c>
       <c r="D18" s="43">
         <v>4.5</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="44">
         <v>4</v>
@@ -2950,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18" s="45">
         <v>4</v>
@@ -2964,19 +2958,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="43">
         <v>3.6</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="44">
         <v>22</v>
@@ -2985,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K19" s="45">
         <v>22</v>
@@ -2999,31 +2993,31 @@
         <v>17</v>
       </c>
       <c r="B20" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>114</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>115</v>
       </c>
       <c r="D20" s="43">
         <v>8.5</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="44">
         <v>2</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" s="45">
         <v>2</v>
@@ -3034,19 +3028,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="43">
         <v>3</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="44">
         <v>3</v>
@@ -3056,7 +3050,7 @@
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" s="45">
         <v>6</v>
@@ -3067,19 +3061,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="43">
         <v>3.31</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="44">
         <v>5</v>
@@ -3088,10 +3082,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" s="45">
         <v>6</v>
@@ -3102,10 +3096,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="D23" s="43">
         <v>3</v>
@@ -3114,16 +3108,16 @@
         <v>1</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" s="44">
         <v>0</v>
@@ -3137,31 +3131,31 @@
         <v>21</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="43">
         <v>8.4</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="44">
         <v>0</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K24" s="45">
         <v>0</v>
@@ -3172,19 +3166,19 @@
         <v>22</v>
       </c>
       <c r="B25" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>121</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>122</v>
       </c>
       <c r="D25" s="43">
         <v>4</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="44">
         <v>2</v>
@@ -3207,19 +3201,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="43">
         <v>3.5</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="44">
         <v>27</v>
@@ -3228,10 +3222,10 @@
         <v>7</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K26" s="45">
         <v>34</v>
@@ -3242,31 +3236,31 @@
         <v>24</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="43">
         <v>7.15</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="44">
         <v>6</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I27" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K27" s="45">
         <v>6</v>
@@ -3277,19 +3271,19 @@
         <v>25</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="43">
         <v>5</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="44">
         <v>3</v>
@@ -3301,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K28" s="45">
         <v>3</v>
@@ -3312,31 +3306,31 @@
         <v>26</v>
       </c>
       <c r="B29" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>126</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>127</v>
       </c>
       <c r="D29" s="43">
         <v>7</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="44">
         <v>0</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K29" s="45">
         <v>0</v>
@@ -3347,10 +3341,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>128</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>129</v>
       </c>
       <c r="D30" s="43">
         <v>4</v>
@@ -3382,16 +3376,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="43">
         <v>6.5</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="44">
         <v>0</v>
@@ -3417,16 +3411,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="43">
         <v>3.5</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" s="44">
         <v>0</v>
@@ -3452,19 +3446,19 @@
         <v>30</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="43">
         <v>7</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="44">
         <v>1</v>
@@ -3487,31 +3481,31 @@
         <v>31</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="43">
         <v>8</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="44">
         <v>1</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K34" s="45">
         <v>1</v>
@@ -3522,19 +3516,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>133</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>134</v>
       </c>
       <c r="D35" s="43">
         <v>3.39</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="44">
         <v>6</v>
@@ -3543,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="I35" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K35" s="45">
         <v>7</v>
@@ -3557,31 +3551,31 @@
         <v>33</v>
       </c>
       <c r="B36" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>135</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>136</v>
       </c>
       <c r="D36" s="43">
         <v>4</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="44">
         <v>2</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I36" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K36" s="45">
         <v>2</v>
@@ -3592,31 +3586,31 @@
         <v>34</v>
       </c>
       <c r="B37" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="42" t="s">
         <v>137</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>138</v>
       </c>
       <c r="D37" s="43">
         <v>4</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J37" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K37" s="45">
         <v>0</v>
@@ -3627,31 +3621,31 @@
         <v>35</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" s="43">
         <v>4</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="44">
         <v>1</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I38" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J38" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K38" s="45">
         <v>1</v>
@@ -3662,31 +3656,31 @@
         <v>36</v>
       </c>
       <c r="B39" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>140</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>141</v>
       </c>
       <c r="D39" s="43">
         <v>9</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="44">
         <v>0</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K39" s="45">
         <v>0</v>
@@ -3697,31 +3691,31 @@
         <v>37</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="43">
         <v>5.25</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="44">
         <v>1</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I40" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K40" s="45">
         <v>1</v>
@@ -3732,10 +3726,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="43">
         <v>3.6</v>
@@ -3767,19 +3761,19 @@
         <v>39</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="43">
         <v>4</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="44">
         <v>0</v>
@@ -3788,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K42" s="45">
         <v>0</v>
@@ -3802,16 +3796,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="43">
         <v>4</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="44">
         <v>0</v>
@@ -3837,10 +3831,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="42" t="s">
         <v>145</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>146</v>
       </c>
       <c r="D44" s="43">
         <v>2.58</v>
@@ -3849,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="44">
         <v>8</v>
@@ -3872,16 +3866,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="43">
         <v>4.6500000000000004</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" s="44">
         <v>0</v>
@@ -3907,31 +3901,31 @@
         <v>43</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="43">
         <v>8</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="44">
         <v>1</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K46" s="45">
         <v>1</v>
@@ -3942,31 +3936,31 @@
         <v>44</v>
       </c>
       <c r="B47" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>148</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>149</v>
       </c>
       <c r="D47" s="43">
         <v>4.75</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" s="44">
         <v>9</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I47" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J47" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K47" s="45">
         <v>9</v>
@@ -3977,19 +3971,19 @@
         <v>45</v>
       </c>
       <c r="B48" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>150</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>151</v>
       </c>
       <c r="D48" s="43">
         <v>4</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G48" s="44">
         <v>63</v>
@@ -4001,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K48" s="45">
         <v>77</v>
@@ -4012,19 +4006,19 @@
         <v>46</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="43">
         <v>4.5</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" s="44">
         <v>7</v>
@@ -4033,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="I49" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K49" s="45">
         <v>8</v>
@@ -4047,31 +4041,31 @@
         <v>47</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" s="43">
         <v>5</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" s="44">
         <v>1</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K50" s="45">
         <v>1</v>
@@ -4082,19 +4076,19 @@
         <v>48</v>
       </c>
       <c r="B51" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="42" t="s">
         <v>154</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>155</v>
       </c>
       <c r="D51" s="43">
         <v>7.25</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="44">
         <v>3</v>
@@ -4103,10 +4097,10 @@
         <v>0</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K51" s="45">
         <v>3</v>
@@ -4117,19 +4111,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="42" t="s">
         <v>156</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>157</v>
       </c>
       <c r="D52" s="43">
         <v>3</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="44">
         <v>3</v>
@@ -4141,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K52" s="45">
         <v>3</v>
@@ -4152,10 +4146,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="43">
         <v>4.5</v>
@@ -4187,10 +4181,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>159</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>160</v>
       </c>
       <c r="D54" s="43">
         <v>8</v>
@@ -4222,31 +4216,31 @@
         <v>52</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="43">
         <v>3.5</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" s="44">
         <v>5</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I55" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K55" s="45">
         <v>5</v>
@@ -4257,19 +4251,19 @@
         <v>53</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="43">
         <v>25</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" s="44">
         <v>0</v>
@@ -4281,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K56" s="45">
         <v>0</v>
@@ -4292,31 +4286,31 @@
         <v>54</v>
       </c>
       <c r="B57" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>163</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>164</v>
       </c>
       <c r="D57" s="43">
         <v>2.75</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="44">
         <v>1</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I57" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J57" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K57" s="45">
         <v>1</v>
@@ -4327,19 +4321,19 @@
         <v>55</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="43">
         <v>5.5</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" s="44">
         <v>6</v>
@@ -4348,10 +4342,10 @@
         <v>3</v>
       </c>
       <c r="I58" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J58" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K58" s="45">
         <v>9</v>
@@ -4362,31 +4356,31 @@
         <v>56</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" s="43">
         <v>5.7</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" s="44">
         <v>5</v>
       </c>
       <c r="H59" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I59" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J59" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K59" s="45">
         <v>5</v>
@@ -4397,31 +4391,31 @@
         <v>57</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="43">
         <v>7.01</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" s="44">
         <v>3</v>
       </c>
       <c r="H60" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I60" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J60" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K60" s="45">
         <v>3</v>
@@ -4432,19 +4426,19 @@
         <v>58</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" s="43">
         <v>6</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="44">
         <v>0</v>
@@ -4453,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J61" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K61" s="45">
         <v>0</v>
@@ -4467,10 +4461,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="43">
         <v>18</v>
@@ -4502,28 +4496,28 @@
         <v>60</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" s="43">
         <v>4</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H63" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I63" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J63" s="44">
         <v>3</v>
@@ -4537,10 +4531,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="42" t="s">
         <v>170</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>171</v>
       </c>
       <c r="D64" s="43">
         <v>3.4</v>
@@ -4572,19 +4566,19 @@
         <v>62</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D65" s="43">
         <v>4.5</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="44">
         <v>3</v>
@@ -4593,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="I65" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J65" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K65" s="45">
         <v>3</v>
@@ -4607,31 +4601,31 @@
         <v>63</v>
       </c>
       <c r="B66" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="42" t="s">
         <v>172</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>173</v>
       </c>
       <c r="D66" s="43">
         <v>4.9000000000000004</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66" s="44">
         <v>1</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I66" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J66" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K66" s="45">
         <v>1</v>
@@ -4642,19 +4636,19 @@
         <v>64</v>
       </c>
       <c r="B67" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="42" t="s">
         <v>174</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>175</v>
       </c>
       <c r="D67" s="43">
         <v>7</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67" s="44">
         <v>2</v>
@@ -4666,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K67" s="45">
         <v>2</v>
@@ -4677,31 +4671,31 @@
         <v>65</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D68" s="43">
         <v>7</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="44">
         <v>0</v>
       </c>
       <c r="H68" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I68" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J68" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K68" s="45">
         <v>0</v>
@@ -4712,19 +4706,19 @@
         <v>66</v>
       </c>
       <c r="B69" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="42" t="s">
         <v>177</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>178</v>
       </c>
       <c r="D69" s="43">
         <v>22.37</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" s="44">
         <v>0</v>
@@ -4736,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K69" s="45">
         <v>0</v>
@@ -4747,31 +4741,31 @@
         <v>67</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70" s="43">
         <v>3.25</v>
       </c>
       <c r="E70" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70" s="44">
         <v>33</v>
       </c>
       <c r="H70" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I70" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J70" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K70" s="45">
         <v>33</v>
@@ -4782,25 +4776,25 @@
         <v>68</v>
       </c>
       <c r="B71" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="42" t="s">
         <v>180</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>181</v>
       </c>
       <c r="D71" s="43">
         <v>3</v>
       </c>
       <c r="E71" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H71" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I71" s="44">
         <v>0</v>
@@ -4817,10 +4811,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="42" t="s">
         <v>182</v>
-      </c>
-      <c r="C72" s="42" t="s">
-        <v>183</v>
       </c>
       <c r="D72" s="43">
         <v>2.74</v>
@@ -4852,22 +4846,22 @@
         <v>70</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" s="43">
         <v>3</v>
       </c>
       <c r="E73" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G73" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H73" s="44">
         <v>1</v>
@@ -4887,10 +4881,10 @@
         <v>71</v>
       </c>
       <c r="B74" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="42" t="s">
         <v>185</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>186</v>
       </c>
       <c r="D74" s="43">
         <v>3</v>
@@ -4922,10 +4916,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D75" s="43">
         <v>12</v>
@@ -4957,29 +4951,29 @@
         <v>73</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="43">
         <v>8</v>
       </c>
       <c r="E76" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G76" s="47"/>
       <c r="H76" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J76" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K76" s="45">
         <v>0</v>
@@ -4990,10 +4984,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="42" t="s">
         <v>189</v>
-      </c>
-      <c r="C77" s="42" t="s">
-        <v>190</v>
       </c>
       <c r="D77" s="43">
         <v>3</v>
@@ -5025,27 +5019,27 @@
         <v>75</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="43">
         <v>6</v>
       </c>
       <c r="E78" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78" s="47"/>
       <c r="H78" s="47"/>
       <c r="I78" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J78" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K78" s="45">
         <v>0</v>
@@ -5056,19 +5050,19 @@
         <v>76</v>
       </c>
       <c r="B79" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="42" t="s">
         <v>192</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>193</v>
       </c>
       <c r="D79" s="43">
         <v>3.5</v>
       </c>
       <c r="E79" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G79" s="44">
         <v>1</v>
@@ -5080,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K79" s="45">
         <v>2</v>
@@ -5091,19 +5085,19 @@
         <v>77</v>
       </c>
       <c r="B80" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="C80" s="42" t="s">
-        <v>195</v>
       </c>
       <c r="D80" s="43">
         <v>2.4</v>
       </c>
       <c r="E80" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80" s="44">
         <v>0</v>
@@ -5115,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K80" s="45">
         <v>0</v>
@@ -5126,10 +5120,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" s="43">
         <v>2.4</v>
@@ -5161,10 +5155,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="C82" s="42" t="s">
-        <v>198</v>
       </c>
       <c r="D82" s="43">
         <v>2.4</v>
@@ -5196,19 +5190,19 @@
         <v>80</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="43">
         <v>4</v>
       </c>
       <c r="E83" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G83" s="44">
         <v>2</v>
@@ -5217,10 +5211,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J83" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K83" s="45">
         <v>2</v>
@@ -5231,19 +5225,19 @@
         <v>81</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D84" s="43">
         <v>12</v>
       </c>
       <c r="E84" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G84" s="44">
         <v>2</v>
@@ -5255,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K84" s="45">
         <v>2</v>
@@ -5266,10 +5260,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="42" t="s">
         <v>201</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>202</v>
       </c>
       <c r="D85" s="43">
         <v>3.5</v>
@@ -5278,19 +5272,19 @@
         <v>2</v>
       </c>
       <c r="F85" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G85" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H85" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I85" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J85" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K85" s="45">
         <v>2</v>
@@ -5301,10 +5295,10 @@
         <v>83</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D86" s="43">
         <v>2.4</v>
@@ -5336,19 +5330,19 @@
         <v>84</v>
       </c>
       <c r="B87" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="43">
         <v>2.5</v>
       </c>
       <c r="E87" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G87" s="44">
         <v>1</v>
@@ -5357,10 +5351,10 @@
         <v>0</v>
       </c>
       <c r="I87" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J87" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K87" s="45">
         <v>1</v>
@@ -5371,19 +5365,19 @@
         <v>85</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D88" s="43">
         <v>3.5</v>
       </c>
       <c r="E88" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G88" s="44">
         <v>0</v>
@@ -5392,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="I88" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J88" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K88" s="45">
         <v>0</v>
@@ -5406,10 +5400,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="42" t="s">
         <v>206</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>207</v>
       </c>
       <c r="D89" s="43">
         <v>4.5</v>
@@ -5441,19 +5435,19 @@
         <v>87</v>
       </c>
       <c r="B90" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="42" t="s">
         <v>208</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>209</v>
       </c>
       <c r="D90" s="43">
         <v>5.5</v>
       </c>
       <c r="E90" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F90" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G90" s="44">
         <v>0</v>
@@ -5462,10 +5456,10 @@
         <v>0</v>
       </c>
       <c r="I90" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J90" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K90" s="45">
         <v>0</v>
@@ -5476,31 +5470,31 @@
         <v>88</v>
       </c>
       <c r="B91" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D91" s="43">
         <v>3</v>
       </c>
       <c r="E91" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G91" s="44">
         <v>0</v>
       </c>
       <c r="H91" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I91" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J91" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K91" s="45">
         <v>0</v>
@@ -5511,10 +5505,10 @@
         <v>89</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D92" s="43">
         <v>3.5</v>
@@ -5546,19 +5540,19 @@
         <v>90</v>
       </c>
       <c r="B93" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D93" s="43">
         <v>2.7</v>
       </c>
       <c r="E93" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G93" s="44">
         <v>0</v>
@@ -5567,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="I93" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J93" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K93" s="45">
         <v>0</v>
@@ -5581,31 +5575,31 @@
         <v>91</v>
       </c>
       <c r="B94" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" s="42" t="s">
         <v>213</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>214</v>
       </c>
       <c r="D94" s="43">
         <v>6</v>
       </c>
       <c r="E94" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F94" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G94" s="44">
         <v>0</v>
       </c>
       <c r="H94" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I94" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J94" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K94" s="45">
         <v>0</v>
@@ -5616,10 +5610,10 @@
         <v>92</v>
       </c>
       <c r="B95" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D95" s="43">
         <v>4</v>
@@ -5651,19 +5645,19 @@
         <v>93</v>
       </c>
       <c r="B96" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D96" s="43">
         <v>3.5</v>
       </c>
       <c r="E96" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G96" s="44">
         <v>2</v>
@@ -5672,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J96" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K96" s="45">
         <v>2</v>
@@ -5686,19 +5680,19 @@
         <v>94</v>
       </c>
       <c r="B97" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D97" s="43">
         <v>4</v>
       </c>
       <c r="E97" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G97" s="44">
         <v>0</v>
@@ -5710,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K97" s="45">
         <v>0</v>
@@ -5721,31 +5715,31 @@
         <v>95</v>
       </c>
       <c r="B98" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D98" s="43">
         <v>4.4000000000000004</v>
       </c>
       <c r="E98" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G98" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H98" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I98" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J98" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K98" s="45">
         <v>0</v>
@@ -5756,31 +5750,31 @@
         <v>96</v>
       </c>
       <c r="B99" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D99" s="43">
         <v>3</v>
       </c>
       <c r="E99" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G99" s="44">
         <v>2</v>
       </c>
       <c r="H99" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I99" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J99" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K99" s="45">
         <v>2</v>
@@ -5791,22 +5785,22 @@
         <v>97</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D100" s="43">
         <v>3</v>
       </c>
       <c r="E100" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F100" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G100" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H100" s="44">
         <v>0</v>
@@ -5815,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K100" s="42">
         <v>0</v>
@@ -5826,19 +5820,19 @@
         <v>98</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D101" s="43">
         <v>3.5</v>
       </c>
       <c r="E101" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G101" s="44">
         <v>0</v>
@@ -5847,10 +5841,10 @@
         <v>0</v>
       </c>
       <c r="I101" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J101" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K101" s="45">
         <v>0</v>
@@ -5861,31 +5855,31 @@
         <v>99</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D102" s="43">
         <v>6.89</v>
       </c>
       <c r="E102" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F102" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G102" s="44">
         <v>0</v>
       </c>
       <c r="H102" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I102" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J102" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K102" s="45">
         <v>0</v>
@@ -5896,19 +5890,19 @@
         <v>100</v>
       </c>
       <c r="B103" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D103" s="43">
         <v>4.5</v>
       </c>
       <c r="E103" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F103" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G103" s="44">
         <v>3</v>
@@ -5917,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="I103" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J103" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K103" s="45">
         <v>3</v>
@@ -5931,10 +5925,10 @@
         <v>101</v>
       </c>
       <c r="B104" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D104" s="43">
         <v>12</v>
@@ -5966,10 +5960,10 @@
         <v>102</v>
       </c>
       <c r="B105" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D105" s="43">
         <v>3</v>
@@ -6001,19 +5995,19 @@
         <v>103</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D106" s="43">
         <v>5</v>
       </c>
       <c r="E106" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G106" s="44">
         <v>0</v>
@@ -6022,10 +6016,10 @@
         <v>0</v>
       </c>
       <c r="I106" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J106" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K106" s="45">
         <v>0</v>
@@ -6036,19 +6030,19 @@
         <v>104</v>
       </c>
       <c r="B107" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D107" s="43">
         <v>6.34</v>
       </c>
       <c r="E107" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F107" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G107" s="44">
         <v>0</v>
@@ -6060,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K107" s="45">
         <v>0</v>
@@ -6071,19 +6065,19 @@
         <v>105</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D108" s="43">
         <v>3.6</v>
       </c>
       <c r="E108" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F108" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G108" s="44">
         <v>0</v>
@@ -6106,31 +6100,31 @@
         <v>106</v>
       </c>
       <c r="B109" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="42" t="s">
         <v>228</v>
-      </c>
-      <c r="C109" s="42" t="s">
-        <v>229</v>
       </c>
       <c r="D109" s="43">
         <v>4</v>
       </c>
       <c r="E109" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F109" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G109" s="44">
         <v>1</v>
       </c>
       <c r="H109" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I109" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J109" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K109" s="45">
         <v>1</v>
@@ -6141,10 +6135,10 @@
         <v>107</v>
       </c>
       <c r="B110" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" s="42" t="s">
         <v>230</v>
-      </c>
-      <c r="C110" s="42" t="s">
-        <v>231</v>
       </c>
       <c r="D110" s="43">
         <v>2.5</v>
@@ -6156,7 +6150,7 @@
       <c r="I110" s="46"/>
       <c r="J110" s="47"/>
       <c r="K110" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="14.25">
@@ -6164,31 +6158,31 @@
         <v>108</v>
       </c>
       <c r="B111" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D111" s="43">
         <v>4.5</v>
       </c>
       <c r="E111" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F111" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G111" s="44">
         <v>2</v>
       </c>
       <c r="H111" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I111" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J111" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K111" s="45">
         <v>2</v>
@@ -6199,28 +6193,28 @@
         <v>109</v>
       </c>
       <c r="B112" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D112" s="43">
         <v>3.5</v>
       </c>
       <c r="E112" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F112" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G112" s="46"/>
       <c r="H112" s="47"/>
       <c r="I112" s="47"/>
       <c r="J112" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K112" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="14.25">
@@ -6228,10 +6222,10 @@
         <v>110</v>
       </c>
       <c r="B113" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D113" s="43">
         <v>4.5</v>
@@ -6243,7 +6237,7 @@
       <c r="I113" s="46"/>
       <c r="J113" s="47"/>
       <c r="K113" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="14.25">
@@ -6251,32 +6245,32 @@
         <v>111</v>
       </c>
       <c r="B114" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="42" t="s">
         <v>233</v>
-      </c>
-      <c r="C114" s="42" t="s">
-        <v>234</v>
       </c>
       <c r="D114" s="43">
         <v>5</v>
       </c>
       <c r="E114" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F114" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G114" s="46"/>
       <c r="H114" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I114" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J114" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K114" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="14.25">
@@ -6284,28 +6278,28 @@
         <v>112</v>
       </c>
       <c r="B115" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D115" s="43">
         <v>3</v>
       </c>
       <c r="E115" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F115" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G115" s="46"/>
       <c r="H115" s="46"/>
       <c r="I115" s="46"/>
       <c r="J115" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K115" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="12.75">
@@ -6399,8 +6393,8 @@
       <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:19" ht="15">
-      <c r="A126" s="84" t="s">
-        <v>236</v>
+      <c r="A126" s="85" t="s">
+        <v>235</v>
       </c>
       <c r="B126" s="83"/>
       <c r="C126" s="83"/>
@@ -6411,20 +6405,20 @@
       <c r="H126" s="83"/>
       <c r="I126" s="83"/>
       <c r="J126" s="83"/>
-      <c r="K126" s="73"/>
+      <c r="K126" s="84"/>
     </row>
     <row r="127" spans="1:19" ht="15">
       <c r="A127" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="C127" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="D127" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
@@ -6433,7 +6427,7 @@
       <c r="I127" s="22"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="15.75" customHeight="1">
@@ -6441,29 +6435,29 @@
         <v>1</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" s="49"/>
       <c r="D128" s="50">
         <v>4</v>
       </c>
       <c r="E128" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F128" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H128" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I128" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J128" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K128" s="52">
         <v>0</v>
@@ -6482,29 +6476,29 @@
         <v>2</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C129" s="49"/>
       <c r="D129" s="50">
         <v>4.4000000000000004</v>
       </c>
       <c r="E129" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F129" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H129" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I129" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J129" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K129" s="52">
         <v>0</v>
@@ -6523,16 +6517,16 @@
         <v>3</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D130" s="26">
         <v>3.25</v>
       </c>
       <c r="E130" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F130" s="28">
         <v>3</v>
@@ -6541,13 +6535,13 @@
         <v>0</v>
       </c>
       <c r="H130" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I130" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J130" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K130" s="28">
         <v>3</v>
@@ -15275,7 +15269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -15294,8 +15288,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" s="84" t="s">
-        <v>238</v>
+      <c r="A2" s="85" t="s">
+        <v>237</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -15308,52 +15302,52 @@
       <c r="J2" s="83"/>
       <c r="K2" s="83"/>
       <c r="L2" s="83"/>
-      <c r="M2" s="73"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="22" t="s">
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="85" t="s">
         <v>240</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="84" t="s">
-        <v>241</v>
       </c>
       <c r="B28" s="83"/>
       <c r="C28" s="83"/>
@@ -15366,20 +15360,20 @@
       <c r="J28" s="83"/>
       <c r="K28" s="83"/>
       <c r="L28" s="83"/>
-      <c r="M28" s="73"/>
+      <c r="M28" s="84"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="D29" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -15390,7 +15384,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -15403,7 +15397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -15426,8 +15420,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="84" t="s">
-        <v>242</v>
+      <c r="A1" s="85" t="s">
+        <v>241</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -15437,38 +15431,38 @@
       <c r="G1" s="83"/>
       <c r="H1" s="83"/>
       <c r="I1" s="83"/>
-      <c r="J1" s="73"/>
+      <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="E2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>87</v>
-      </c>
       <c r="J2" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -15476,10 +15470,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="55">
         <v>5.79</v>
@@ -15508,10 +15502,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="55">
         <v>5.75</v>
@@ -15520,16 +15514,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="56">
         <v>1</v>
@@ -15540,28 +15534,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="55">
         <v>4.2</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="31">
         <v>0</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="56">
         <v>0</v>
@@ -15572,10 +15566,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>245</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>246</v>
       </c>
       <c r="D6" s="55">
         <v>6.75</v>
@@ -15604,28 +15598,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="56">
         <v>6.85</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="31">
         <v>4</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="60">
         <v>4</v>
@@ -15636,28 +15630,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>248</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>249</v>
       </c>
       <c r="D8" s="56">
         <v>6.75</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="31">
         <v>0</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="56">
         <v>0</v>
@@ -15668,10 +15662,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="55">
         <v>5.01</v>
@@ -15680,16 +15674,16 @@
         <v>2</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="56">
         <v>2</v>
@@ -15700,10 +15694,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="55">
         <v>6.54</v>
@@ -15718,10 +15712,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="60">
         <v>2</v>
@@ -15732,10 +15726,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="55">
         <v>4</v>
@@ -15744,16 +15738,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" s="56">
         <v>0</v>
@@ -15764,16 +15758,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="55" t="s">
         <v>252</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>253</v>
       </c>
       <c r="D12" s="62">
         <v>4.8499999999999996</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="31">
         <v>8</v>
@@ -15796,28 +15790,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="55" t="s">
         <v>254</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>255</v>
       </c>
       <c r="D13" s="55">
         <v>3.5</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="31">
         <v>0</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="56">
         <v>0</v>
@@ -15828,10 +15822,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>256</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>257</v>
       </c>
       <c r="D14" s="55">
         <v>7.1</v>
@@ -15840,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="31">
         <v>0</v>
@@ -15849,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="56">
         <v>0</v>
@@ -15860,28 +15854,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="55">
         <v>4.5</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="31">
         <v>0</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="56">
         <v>0</v>
@@ -15892,10 +15886,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>259</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>260</v>
       </c>
       <c r="D16" s="55">
         <v>5.5</v>
@@ -15904,16 +15898,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="60">
         <v>0</v>
@@ -15924,10 +15918,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="55">
         <v>7.4</v>
@@ -15942,10 +15936,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" s="56">
         <v>0</v>
@@ -15956,10 +15950,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="55">
         <v>10.199999999999999</v>
@@ -15974,10 +15968,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" s="56">
         <v>1</v>
@@ -15988,10 +15982,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="55">
         <v>5.5</v>
@@ -16000,16 +15994,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="31">
         <v>0</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" s="60">
         <v>0</v>
@@ -16020,10 +16014,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="64">
         <v>4.5</v>
@@ -16032,10 +16026,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="31">
         <v>0</v>
@@ -16052,10 +16046,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="56" t="s">
         <v>265</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>266</v>
       </c>
       <c r="D21" s="56">
         <v>4.5</v>
@@ -16064,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="31">
         <v>2</v>
@@ -16084,10 +16078,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="55">
         <v>4.5</v>
@@ -16102,10 +16096,10 @@
         <v>2</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" s="60">
         <v>3</v>
@@ -16116,10 +16110,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D23" s="55">
         <v>4.5</v>
@@ -16134,10 +16128,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" s="60">
         <v>2</v>
@@ -16148,28 +16142,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="55" t="s">
         <v>269</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>270</v>
       </c>
       <c r="D24" s="55">
         <v>3.5</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="31">
         <v>2</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" s="60">
         <v>2</v>
@@ -16180,10 +16174,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="55">
         <v>5.86</v>
@@ -16192,16 +16186,16 @@
         <v>7</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" s="60">
         <v>7</v>
@@ -16212,10 +16206,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="55">
         <v>5.5</v>
@@ -16224,16 +16218,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="31">
         <v>4</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J26" s="60">
         <v>4</v>
@@ -16244,16 +16238,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="55" t="s">
         <v>273</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>274</v>
       </c>
       <c r="D27" s="55">
         <v>4</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="31">
         <v>5</v>
@@ -16262,10 +16256,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" s="60">
         <v>6</v>
@@ -16276,28 +16270,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D28" s="55">
         <v>5</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="31">
         <v>0</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28" s="60">
         <v>0</v>
@@ -16308,10 +16302,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="55">
         <v>4.12</v>
@@ -16326,10 +16320,10 @@
         <v>1</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29" s="60">
         <v>2</v>
@@ -16340,28 +16334,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D30" s="55">
         <v>3.5</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H30" s="31">
         <v>1</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" s="60">
         <v>1</v>
@@ -16372,10 +16366,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="55" t="s">
         <v>278</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>279</v>
       </c>
       <c r="D31" s="55">
         <v>6</v>
@@ -16384,16 +16378,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="31">
         <v>0</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" s="60">
         <v>0</v>
@@ -16404,28 +16398,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="55">
         <v>7.5</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" s="31">
         <v>0</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" s="60">
         <v>0</v>
@@ -16436,19 +16430,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="55" t="s">
         <v>281</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>282</v>
       </c>
       <c r="D33" s="55">
         <v>4.75</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="31">
         <v>0</v>
@@ -16457,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J33" s="60">
         <v>0</v>
@@ -16468,28 +16462,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D34" s="55">
         <v>5</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="31">
         <v>0</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J34" s="60">
         <v>0</v>
@@ -16500,10 +16494,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="55" t="s">
         <v>284</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>285</v>
       </c>
       <c r="D35" s="55">
         <v>4</v>
@@ -16515,13 +16509,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" s="60">
         <v>0</v>
@@ -16532,10 +16526,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="55">
         <v>3.5</v>
@@ -16544,16 +16538,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J36" s="60">
         <v>0</v>
@@ -16564,28 +16558,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="55">
         <v>3.6</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H37" s="31">
         <v>0</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J37" s="60">
         <v>0</v>
@@ -16596,10 +16590,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="55">
         <v>3.84</v>
@@ -16614,10 +16608,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J38" s="60">
         <v>0</v>
@@ -16628,28 +16622,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="55">
         <v>3.25</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="31">
         <v>1</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J39" s="60">
         <v>1</v>
@@ -16660,10 +16654,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="55">
         <v>4.5</v>
@@ -16672,16 +16666,16 @@
         <v>1</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J40" s="60">
         <v>1</v>
@@ -16692,10 +16686,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="55">
         <v>16.75</v>
@@ -16710,10 +16704,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J41" s="60">
         <v>1</v>
@@ -16724,28 +16718,28 @@
         <v>40</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="55">
         <v>3.5</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42" s="24">
         <v>0</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J42" s="60">
         <v>0</v>
@@ -16756,10 +16750,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="55">
         <v>4</v>
@@ -16768,16 +16762,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="31">
         <v>0</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J43" s="60">
         <v>0</v>
@@ -16788,28 +16782,28 @@
         <v>42</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="55">
         <v>3.5</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="24">
         <v>0</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J44" s="60">
         <v>0</v>
@@ -16820,10 +16814,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="55">
         <v>5.5</v>
@@ -16852,28 +16846,28 @@
         <v>44</v>
       </c>
       <c r="B46" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="55" t="s">
         <v>294</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>295</v>
       </c>
       <c r="D46" s="55">
         <v>3.6</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="31">
         <v>1</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J46" s="56">
         <v>1</v>
@@ -16884,7 +16878,7 @@
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
       <c r="I47" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="68">
         <f>SUM(J3:J46)</f>
@@ -16904,8 +16898,8 @@
       <c r="J48" s="33"/>
     </row>
     <row r="49" spans="1:10" ht="15">
-      <c r="A49" s="84" t="s">
-        <v>296</v>
+      <c r="A49" s="85" t="s">
+        <v>295</v>
       </c>
       <c r="B49" s="83"/>
       <c r="C49" s="83"/>
@@ -16915,29 +16909,29 @@
       <c r="G49" s="83"/>
       <c r="H49" s="83"/>
       <c r="I49" s="83"/>
-      <c r="J49" s="73"/>
+      <c r="J49" s="84"/>
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="C50" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="D50" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="E50" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="30" t="s">
-        <v>94</v>
-      </c>
       <c r="G50" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
@@ -16948,10 +16942,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" s="21">
         <v>4.5</v>
@@ -16971,10 +16965,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D52" s="21">
         <v>10</v>
@@ -16994,7 +16988,7 @@
       <c r="C53" s="69"/>
       <c r="E53" s="29"/>
       <c r="F53" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="32">
         <v>5</v>
@@ -21893,7 +21887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -21913,8 +21907,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" s="84" t="s">
-        <v>297</v>
+      <c r="A2" s="85" t="s">
+        <v>296</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -21927,26 +21921,26 @@
       <c r="J2" s="83"/>
       <c r="K2" s="83"/>
       <c r="L2" s="83"/>
-      <c r="M2" s="73"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="E3" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>298</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>299</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -21955,12 +21949,12 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="84" t="s">
-        <v>300</v>
+      <c r="A28" s="85" t="s">
+        <v>299</v>
       </c>
       <c r="B28" s="83"/>
       <c r="C28" s="83"/>
@@ -21973,26 +21967,26 @@
       <c r="J28" s="83"/>
       <c r="K28" s="83"/>
       <c r="L28" s="83"/>
-      <c r="M28" s="73"/>
+      <c r="M28" s="84"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="D29" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="E29" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" s="30" t="s">
         <v>298</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>299</v>
       </c>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -22001,7 +21995,7 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
